--- a/Assets/Info Ritmos Cardiacos.xlsx
+++ b/Assets/Info Ritmos Cardiacos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Unity\ExamenMedicina\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C77B8-F206-42E0-930B-404B2775FE1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E20FFF5-2F10-44AD-813E-5297AF895D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9465" yWindow="4800" windowWidth="29040" windowHeight="17640" xr2:uid="{E7857329-C7EF-4CC0-8201-DCBCD3175FA4}"/>
+    <workbookView xWindow="-7710" yWindow="360" windowWidth="28800" windowHeight="17400" xr2:uid="{E7857329-C7EF-4CC0-8201-DCBCD3175FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>AESP1</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>82/70(73)</t>
+  </si>
+  <si>
+    <t>147-151-147-134-138-146-150-146-144-138-134-158-151-156-149-147-151-147-134-138-146-150-146</t>
+  </si>
+  <si>
+    <t>Con Cada Bip cambia</t>
+  </si>
+  <si>
+    <t>158-151-156-149-147-151-147-134-138-146-150-146-144-138-134-158-151-156-149-147-151</t>
+  </si>
+  <si>
+    <t>80/60(66)</t>
+  </si>
+  <si>
+    <t>86/44(57)</t>
+  </si>
+  <si>
+    <t>130/80(96)</t>
+  </si>
+  <si>
+    <t>0/0(0)</t>
+  </si>
+  <si>
+    <t>82/62(68)</t>
+  </si>
+  <si>
+    <t>82/64</t>
   </si>
 </sst>
 </file>
@@ -182,12 +209,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06031243-B1BF-4524-A2D3-C85CA372B296}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +551,7 @@
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
@@ -574,30 +608,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>29</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3">
+        <v>182</v>
+      </c>
+      <c r="L2" s="3">
+        <v>182</v>
+      </c>
+      <c r="M2" s="3">
+        <v>182</v>
+      </c>
+      <c r="N2" s="3">
+        <v>182</v>
+      </c>
+      <c r="O2" s="3">
+        <v>182</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -628,6 +686,27 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -657,6 +736,27 @@
       <c r="I4">
         <v>98</v>
       </c>
+      <c r="J4">
+        <v>88</v>
+      </c>
+      <c r="K4">
+        <v>98</v>
+      </c>
+      <c r="L4">
+        <v>87</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <v>98</v>
+      </c>
+      <c r="O4">
+        <v>98</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -686,6 +786,27 @@
       <c r="I5">
         <v>34</v>
       </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -715,6 +836,27 @@
       <c r="I6">
         <v>10</v>
       </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -744,6 +886,27 @@
       <c r="I7">
         <v>37.200000000000003</v>
       </c>
+      <c r="J7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="N7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="O7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P7">
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -773,6 +936,27 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -802,6 +986,27 @@
       <c r="I9">
         <v>1.48</v>
       </c>
+      <c r="J9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="L9" s="5">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.16</v>
+      </c>
+      <c r="N9">
+        <v>0.59</v>
+      </c>
+      <c r="O9">
+        <v>3.51</v>
+      </c>
+      <c r="P9">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -831,6 +1036,27 @@
       <c r="I10" t="s">
         <v>30</v>
       </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
@@ -839,8 +1065,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
@@ -892,6 +1122,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
